--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71175.80240081597</v>
+        <v>-80681.72548087541</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33883838.3151761</v>
+        <v>33793212.02537223</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14009677.88024246</v>
+        <v>13533087.09119554</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2347312.634999985</v>
+        <v>2573501.627684407</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="V11" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="G12" t="n">
         <v>2.873653090726851</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="W12" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>3.262548922260275</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.262548922260275</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3.262548922260275</v>
+      </c>
+      <c r="W13" t="n">
         <v>2.873653090726851</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.873653090726851</v>
+        <v>330.5968555737275</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>330.5968555737275</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>291.189710389339</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>330.5968555737275</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.262548922260276</v>
+        <v>29.98843037819441</v>
       </c>
       <c r="C15" t="n">
-        <v>3.262548922260276</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>126.6096257982767</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>174.5361755762594</v>
       </c>
       <c r="V15" t="n">
-        <v>3.262548922260276</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.873653090726851</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="16">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>73.59185937435659</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>2.873653090726851</v>
+        <v>149.4307213337087</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>3.262548922260276</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>204.9501914756811</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>402.9335988151229</v>
       </c>
       <c r="F17" t="n">
-        <v>194.4222881462127</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1928,7 +1928,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D18" t="n">
-        <v>94.13938596491228</v>
+        <v>94.13938596491238</v>
       </c>
       <c r="E18" t="n">
         <v>93.17921052631581</v>
@@ -1940,7 +1940,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H18" t="n">
-        <v>34.44698820166455</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>155.2353958619331</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>73.48079117345141</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T19" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="C20" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>181.6583672765227</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>324.6350067272861</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H21" t="n">
-        <v>34.44698820166514</v>
+        <v>34.44698820166521</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>49.60563018141206</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T21" t="n">
         <v>126.0091317304331</v>
@@ -2244,16 +2244,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3326831412009</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>6.544124537779855</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G23" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>52.09196186290316</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>104.5283309252524</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H25" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>4.768613349895906</v>
+        <v>98.54407540822348</v>
       </c>
       <c r="T25" t="n">
         <v>240.8720855447433</v>
@@ -2535,16 +2535,16 @@
         <v>275.6161358490523</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>112.9341544987025</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>207.1229373099991</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2715,10 +2715,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>16.66317908484115</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2733,7 +2733,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I28" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>7.281642655454824</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>368.3379045390506</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="D29" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>215.4871124912196</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>126.0091317304331</v>
       </c>
       <c r="U30" t="n">
-        <v>174.5263742585036</v>
+        <v>174.5263742585041</v>
       </c>
       <c r="V30" t="n">
         <v>197.1263427586206</v>
@@ -2955,22 +2955,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>13.88750839500378</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.3388892342509</v>
+        <v>135.61445762977</v>
       </c>
       <c r="H31" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="C32" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>52.01429422411348</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>272.6207125031721</v>
+        <v>229.4694818842012</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3189,25 +3189,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.3388892342509</v>
+        <v>78.75635166129138</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.89767496291907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>418.1856318563248</v>
       </c>
       <c r="E35" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>59.30016691879265</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U35" t="n">
         <v>256.5237009191198</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>45.33347963443941</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>52.79194428408661</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>230.2689840820862</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>396.054118850051</v>
+        <v>102.3980066255534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>210.5192997302657</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>8.467070594391991</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I40" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U40" t="n">
-        <v>194.4291253449093</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3757,7 +3757,7 @@
         <v>396.054118850051</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>346.7665197335593</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>383.1835448506461</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>49.60563018141139</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T42" t="n">
         <v>126.0091317304331</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3909,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.3388892342509</v>
       </c>
       <c r="H43" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>240.8720855447433</v>
       </c>
       <c r="U43" t="n">
-        <v>70.27365533917326</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>59.08260977718484</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>396.054118850051</v>
+        <v>391.1314128214062</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U44" t="n">
         <v>256.5237009191198</v>
@@ -4039,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>210.5192997302657</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.3388892342509</v>
+        <v>159.1964944907071</v>
       </c>
       <c r="H46" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5104850873794</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.556507875659889</v>
+        <v>3.556507875659888</v>
       </c>
       <c r="C11" t="n">
-        <v>3.556507875659889</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="D11" t="n">
-        <v>3.556507875659889</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="E11" t="n">
-        <v>3.556507875659889</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="F11" t="n">
-        <v>3.556507875659889</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="J11" t="n">
-        <v>1.160310701713751</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K11" t="n">
-        <v>2.508138455589631</v>
+        <v>2.50813845558963</v>
       </c>
       <c r="L11" t="n">
-        <v>4.180237967355347</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M11" t="n">
-        <v>6.040770853278586</v>
+        <v>6.040770853278584</v>
       </c>
       <c r="N11" t="n">
-        <v>7.931409106423309</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O11" t="n">
-        <v>9.71668519667894</v>
+        <v>9.716685196678938</v>
       </c>
       <c r="P11" t="n">
         <v>11.24037703589</v>
@@ -5065,28 +5065,28 @@
         <v>12.38460615143387</v>
       </c>
       <c r="R11" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="S11" t="n">
-        <v>13.05019568904111</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="T11" t="n">
-        <v>13.05019568904111</v>
+        <v>6.852011837538955</v>
       </c>
       <c r="U11" t="n">
-        <v>13.05019568904111</v>
+        <v>3.556507875659888</v>
       </c>
       <c r="V11" t="n">
-        <v>10.14751579941802</v>
+        <v>3.556507875659888</v>
       </c>
       <c r="W11" t="n">
-        <v>6.852011837538956</v>
+        <v>3.556507875659888</v>
       </c>
       <c r="X11" t="n">
-        <v>6.852011837538956</v>
+        <v>3.556507875659888</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.556507875659889</v>
+        <v>3.556507875659888</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.459187765282971</v>
+        <v>6.45918776528297</v>
       </c>
       <c r="C12" t="n">
-        <v>6.459187765282971</v>
+        <v>6.45918776528297</v>
       </c>
       <c r="D12" t="n">
-        <v>6.459187765282971</v>
+        <v>6.45918776528297</v>
       </c>
       <c r="E12" t="n">
-        <v>6.459187765282971</v>
+        <v>6.45918776528297</v>
       </c>
       <c r="F12" t="n">
         <v>3.163683803403904</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="I12" t="n">
         <v>0.4561956203818615</v>
@@ -5123,49 +5123,49 @@
         <v>0.9918165824064463</v>
       </c>
       <c r="K12" t="n">
-        <v>1.907278118958098</v>
+        <v>4.221740015444118</v>
       </c>
       <c r="L12" t="n">
-        <v>3.13822912982236</v>
+        <v>6.632143184885601</v>
       </c>
       <c r="M12" t="n">
-        <v>5.190673088024537</v>
+        <v>8.068604954355925</v>
       </c>
       <c r="N12" t="n">
-        <v>6.665153726207345</v>
+        <v>9.543085592538732</v>
       </c>
       <c r="O12" t="n">
-        <v>8.014015446969967</v>
+        <v>10.89194731330135</v>
       </c>
       <c r="P12" t="n">
-        <v>9.096595895631886</v>
+        <v>11.97452776196327</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.820272256003433</v>
+        <v>12.69820412233482</v>
       </c>
       <c r="R12" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="S12" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162037</v>
       </c>
       <c r="T12" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162037</v>
       </c>
       <c r="U12" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162037</v>
       </c>
       <c r="V12" t="n">
-        <v>9.754691727162038</v>
+        <v>6.45918776528297</v>
       </c>
       <c r="W12" t="n">
-        <v>6.459187765282971</v>
+        <v>6.45918776528297</v>
       </c>
       <c r="X12" t="n">
-        <v>6.459187765282971</v>
+        <v>6.45918776528297</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.459187765282971</v>
+        <v>6.45918776528297</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.852011837538956</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="C13" t="n">
-        <v>6.852011837538956</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="D13" t="n">
-        <v>6.852011837538956</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="E13" t="n">
-        <v>6.852011837538956</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="F13" t="n">
-        <v>6.852011837538956</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="G13" t="n">
-        <v>6.852011837538956</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="H13" t="n">
-        <v>3.556507875659889</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="J13" t="n">
-        <v>3.490927346818495</v>
+        <v>0.5970352923692026</v>
       </c>
       <c r="K13" t="n">
-        <v>6.394627437018737</v>
+        <v>1.149238072150545</v>
       </c>
       <c r="L13" t="n">
-        <v>7.101256878375863</v>
+        <v>4.379161505188217</v>
       </c>
       <c r="M13" t="n">
-        <v>7.846298547528422</v>
+        <v>5.288178621536153</v>
       </c>
       <c r="N13" t="n">
-        <v>8.573624791038542</v>
+        <v>6.015504865046275</v>
       </c>
       <c r="O13" t="n">
-        <v>9.245428298083951</v>
+        <v>9.245428298083947</v>
       </c>
       <c r="P13" t="n">
-        <v>9.820272256003433</v>
+        <v>9.820272256003429</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="R13" t="n">
-        <v>10.14751579941802</v>
+        <v>9.754691727162037</v>
       </c>
       <c r="S13" t="n">
-        <v>10.14751579941802</v>
+        <v>6.45918776528297</v>
       </c>
       <c r="T13" t="n">
-        <v>10.14751579941802</v>
+        <v>6.45918776528297</v>
       </c>
       <c r="U13" t="n">
-        <v>10.14751579941802</v>
+        <v>6.45918776528297</v>
       </c>
       <c r="V13" t="n">
-        <v>10.14751579941802</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="W13" t="n">
-        <v>10.14751579941802</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="X13" t="n">
-        <v>10.14751579941802</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.14751579941802</v>
+        <v>0.261003913780822</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2610039137808221</v>
+        <v>654.5149867924301</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2610039137808221</v>
+        <v>654.5149867924301</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2610039137808221</v>
+        <v>320.5787690411902</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2610039137808221</v>
+        <v>320.5787690411902</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2610039137808221</v>
+        <v>320.5787690411902</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2610039137808221</v>
+        <v>26.4477484458982</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2610039137808221</v>
+        <v>26.4477484458982</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2610039137808221</v>
+        <v>66.1638664133913</v>
       </c>
       <c r="J14" t="n">
-        <v>1.160310701713748</v>
+        <v>154.4986408712164</v>
       </c>
       <c r="K14" t="n">
-        <v>2.508138455589629</v>
+        <v>286.8895693554599</v>
       </c>
       <c r="L14" t="n">
-        <v>4.180237967355344</v>
+        <v>451.1322229468616</v>
       </c>
       <c r="M14" t="n">
-        <v>6.040770853278583</v>
+        <v>633.8838212386488</v>
       </c>
       <c r="N14" t="n">
-        <v>7.931409106423307</v>
+        <v>819.5925314517108</v>
       </c>
       <c r="O14" t="n">
-        <v>9.71668519667894</v>
+        <v>994.9520004268753</v>
       </c>
       <c r="P14" t="n">
-        <v>11.24037703589</v>
+        <v>1144.617250112477</v>
       </c>
       <c r="Q14" t="n">
-        <v>12.38460615143387</v>
+        <v>1257.009619664104</v>
       </c>
       <c r="R14" t="n">
-        <v>13.05019568904111</v>
+        <v>1322.38742229491</v>
       </c>
       <c r="S14" t="n">
-        <v>13.05019568904111</v>
+        <v>1322.38742229491</v>
       </c>
       <c r="T14" t="n">
-        <v>9.754691727162038</v>
+        <v>1322.38742229491</v>
       </c>
       <c r="U14" t="n">
-        <v>9.754691727162038</v>
+        <v>1322.38742229491</v>
       </c>
       <c r="V14" t="n">
-        <v>9.754691727162038</v>
+        <v>988.4512045436701</v>
       </c>
       <c r="W14" t="n">
-        <v>9.754691727162038</v>
+        <v>988.4512045436701</v>
       </c>
       <c r="X14" t="n">
-        <v>6.459187765282971</v>
+        <v>988.4512045436701</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.163683803403904</v>
+        <v>988.4512045436701</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.556507875659889</v>
+        <v>322.1149131357489</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2610039137808221</v>
+        <v>215.6584519723912</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2610039137808221</v>
+        <v>120.5681631189445</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2610039137808221</v>
+        <v>26.4477484458982</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2610039137808221</v>
+        <v>26.4477484458982</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2610039137808221</v>
+        <v>26.4477484458982</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2610039137808221</v>
+        <v>26.4477484458982</v>
       </c>
       <c r="I15" t="n">
-        <v>1.072177809113711</v>
+        <v>45.62053309514157</v>
       </c>
       <c r="J15" t="n">
-        <v>1.607798771138296</v>
+        <v>363.9665864366483</v>
       </c>
       <c r="K15" t="n">
-        <v>2.523260307689948</v>
+        <v>453.8881676380742</v>
       </c>
       <c r="L15" t="n">
-        <v>3.754211318554211</v>
+        <v>574.7988305757548</v>
       </c>
       <c r="M15" t="n">
-        <v>5.190673088024536</v>
+        <v>715.8958712364922</v>
       </c>
       <c r="N15" t="n">
-        <v>6.665153726207343</v>
+        <v>860.7273307161715</v>
       </c>
       <c r="O15" t="n">
-        <v>8.014015446969966</v>
+        <v>993.2198210177645</v>
       </c>
       <c r="P15" t="n">
-        <v>9.096595895631884</v>
+        <v>1099.556725229071</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.820272256003433</v>
+        <v>1170.64012961526</v>
       </c>
       <c r="R15" t="n">
-        <v>13.05019568904111</v>
+        <v>1322.38742229491</v>
       </c>
       <c r="S15" t="n">
-        <v>13.05019568904111</v>
+        <v>1322.38742229491</v>
       </c>
       <c r="T15" t="n">
-        <v>13.05019568904111</v>
+        <v>1194.49891138756</v>
       </c>
       <c r="U15" t="n">
-        <v>13.05019568904111</v>
+        <v>1018.199744138813</v>
       </c>
       <c r="V15" t="n">
-        <v>9.754691727162038</v>
+        <v>819.0822262008121</v>
       </c>
       <c r="W15" t="n">
-        <v>9.754691727162038</v>
+        <v>633.7594719340061</v>
       </c>
       <c r="X15" t="n">
-        <v>9.754691727162038</v>
+        <v>478.8920361728861</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.852011837538956</v>
+        <v>352.4062569521069</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2610039137808221</v>
+        <v>450.0517254901662</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2610039137808221</v>
+        <v>277.4900139733911</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2610039137808221</v>
+        <v>277.4900139733911</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2610039137808221</v>
+        <v>277.4900139733911</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2610039137808221</v>
+        <v>100.7829599351473</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2610039137808221</v>
+        <v>100.7829599351473</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2610039137808221</v>
+        <v>100.7829599351473</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2610039137808221</v>
+        <v>26.4477484458982</v>
       </c>
       <c r="J16" t="n">
-        <v>3.490927346818495</v>
+        <v>146.0342522365034</v>
       </c>
       <c r="K16" t="n">
-        <v>6.394627437018734</v>
+        <v>261.4646662790824</v>
       </c>
       <c r="L16" t="n">
-        <v>7.101256878375861</v>
+        <v>330.8736301222378</v>
       </c>
       <c r="M16" t="n">
-        <v>7.84629854752842</v>
+        <v>404.0556506400028</v>
       </c>
       <c r="N16" t="n">
-        <v>8.57362479103854</v>
+        <v>731.3465376579929</v>
       </c>
       <c r="O16" t="n">
-        <v>9.245428298083949</v>
+        <v>1058.637424675983</v>
       </c>
       <c r="P16" t="n">
-        <v>9.820272256003433</v>
+        <v>1115.101705889713</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05019568904111</v>
+        <v>1322.38742229491</v>
       </c>
       <c r="R16" t="n">
-        <v>13.05019568904111</v>
+        <v>1322.38742229491</v>
       </c>
       <c r="S16" t="n">
-        <v>10.14751579941802</v>
+        <v>1171.447299735608</v>
       </c>
       <c r="T16" t="n">
-        <v>10.14751579941802</v>
+        <v>1171.447299735608</v>
       </c>
       <c r="U16" t="n">
-        <v>6.852011837538956</v>
+        <v>1171.447299735608</v>
       </c>
       <c r="V16" t="n">
-        <v>3.556507875659889</v>
+        <v>884.4917916060388</v>
       </c>
       <c r="W16" t="n">
-        <v>3.556507875659889</v>
+        <v>677.4713961760579</v>
       </c>
       <c r="X16" t="n">
-        <v>3.556507875659889</v>
+        <v>677.4713961760579</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.556507875659889</v>
+        <v>450.0517254901662</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>905.2701227701584</v>
+        <v>440.4584857152968</v>
       </c>
       <c r="C17" t="n">
-        <v>905.2701227701584</v>
+        <v>440.4584857152968</v>
       </c>
       <c r="D17" t="n">
-        <v>905.2701227701584</v>
+        <v>440.4584857152968</v>
       </c>
       <c r="E17" t="n">
-        <v>905.2701227701584</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F17" t="n">
-        <v>708.8839731275193</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G17" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H17" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I17" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J17" t="n">
         <v>195.5292216073324</v>
       </c>
       <c r="K17" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099025</v>
       </c>
       <c r="L17" t="n">
-        <v>570.7285396968683</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M17" t="n">
-        <v>801.8833353847199</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N17" t="n">
         <v>1036.7784573317</v>
@@ -5551,16 +5551,16 @@
         <v>1672.742527425299</v>
       </c>
       <c r="V17" t="n">
-        <v>1310.125577359125</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="W17" t="n">
-        <v>905.2701227701584</v>
+        <v>1267.887072836333</v>
       </c>
       <c r="X17" t="n">
-        <v>905.2701227701584</v>
+        <v>848.7446094156434</v>
       </c>
       <c r="Y17" t="n">
-        <v>905.2701227701584</v>
+        <v>440.4584857152968</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>531.9672238352452</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C18" t="n">
-        <v>425.5107626718875</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D18" t="n">
-        <v>330.4204738184408</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E18" t="n">
-        <v>236.3000591453945</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F18" t="n">
-        <v>152.9162207615561</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G18" t="n">
-        <v>68.24978812594492</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H18" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I18" t="n">
-        <v>57.70569792707141</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J18" t="n">
-        <v>124.2518767018075</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K18" t="n">
-        <v>237.9898955472397</v>
+        <v>264.0535687076974</v>
       </c>
       <c r="L18" t="n">
-        <v>651.9936710850011</v>
+        <v>416.9883711887014</v>
       </c>
       <c r="M18" t="n">
-        <v>830.4613721117177</v>
+        <v>595.4560722154181</v>
       </c>
       <c r="N18" t="n">
-        <v>1013.652582137393</v>
+        <v>778.6472822410934</v>
       </c>
       <c r="O18" t="n">
-        <v>1181.236750003003</v>
+        <v>946.2314501067035</v>
       </c>
       <c r="P18" t="n">
-        <v>1315.737819196377</v>
+        <v>1097.834127233839</v>
       </c>
       <c r="Q18" t="n">
-        <v>1629.010680865939</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R18" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.635830272357</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T18" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U18" t="n">
-        <v>1319.064612101714</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V18" t="n">
         <v>1119.947094163714</v>
       </c>
       <c r="W18" t="n">
-        <v>934.6243398969077</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X18" t="n">
-        <v>779.7569041357876</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y18" t="n">
-        <v>653.2711249150084</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>443.3138684835707</v>
+        <v>527.8087692331437</v>
       </c>
       <c r="C19" t="n">
-        <v>443.3138684835707</v>
+        <v>355.2470577163687</v>
       </c>
       <c r="D19" t="n">
-        <v>277.4358756850934</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="E19" t="n">
-        <v>107.6778719358306</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="F19" t="n">
-        <v>33.45485054850597</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G19" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H19" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I19" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J19" t="n">
-        <v>75.20378455015356</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K19" t="n">
-        <v>143.8101078806224</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L19" t="n">
-        <v>304.3051044129576</v>
+        <v>919.1520231542094</v>
       </c>
       <c r="M19" t="n">
-        <v>718.308879950719</v>
+        <v>1204.294129106831</v>
       </c>
       <c r="N19" t="n">
-        <v>1132.31265548848</v>
+        <v>1294.657997700085</v>
       </c>
       <c r="O19" t="n">
-        <v>1546.316431026242</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P19" t="n">
-        <v>1617.735720978398</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q19" t="n">
         <v>1667.182735391305</v>
@@ -5703,22 +5703,22 @@
         <v>1524.001055161996</v>
       </c>
       <c r="T19" t="n">
-        <v>1280.695918248114</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U19" t="n">
-        <v>1002.295781026849</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="V19" t="n">
-        <v>715.3402728972792</v>
+        <v>1237.045547032427</v>
       </c>
       <c r="W19" t="n">
-        <v>443.3138684835707</v>
+        <v>965.0191426187184</v>
       </c>
       <c r="X19" t="n">
-        <v>443.3138684835707</v>
+        <v>719.6273879521309</v>
       </c>
       <c r="Y19" t="n">
-        <v>443.3138684835707</v>
+        <v>719.6273879521309</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>783.7787279056888</v>
+        <v>617.0028163329239</v>
       </c>
       <c r="C20" t="n">
-        <v>361.3689987578859</v>
+        <v>617.0028163329239</v>
       </c>
       <c r="D20" t="n">
-        <v>361.3689987578859</v>
+        <v>617.0028163329239</v>
       </c>
       <c r="E20" t="n">
-        <v>361.3689987578859</v>
+        <v>433.509516053608</v>
       </c>
       <c r="F20" t="n">
-        <v>361.3689987578859</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G20" t="n">
         <v>33.45485054850599</v>
@@ -5749,19 +5749,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I20" t="n">
-        <v>83.79828774524233</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J20" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K20" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L20" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M20" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N20" t="n">
         <v>1036.7784573317</v>
@@ -5773,31 +5773,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q20" t="n">
-        <v>1590.048899840628</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R20" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S20" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T20" t="n">
-        <v>1405.510527385115</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U20" t="n">
-        <v>1146.395677971862</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V20" t="n">
-        <v>783.7787279056888</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="W20" t="n">
-        <v>783.7787279056888</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="X20" t="n">
-        <v>783.7787279056888</v>
+        <v>1039.412545480727</v>
       </c>
       <c r="Y20" t="n">
-        <v>783.7787279056888</v>
+        <v>1039.412545480727</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C21" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D21" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E21" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F21" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G21" t="n">
-        <v>68.24978812594551</v>
+        <v>68.2497881259456</v>
       </c>
       <c r="H21" t="n">
         <v>33.45485054850599</v>
@@ -5831,25 +5831,25 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J21" t="n">
-        <v>474.8738748284774</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K21" t="n">
-        <v>588.6118936739097</v>
+        <v>264.0535687076974</v>
       </c>
       <c r="L21" t="n">
-        <v>741.5466961549138</v>
+        <v>416.9883711887014</v>
       </c>
       <c r="M21" t="n">
-        <v>920.0143971816303</v>
+        <v>595.4560722154181</v>
       </c>
       <c r="N21" t="n">
-        <v>1103.205607207306</v>
+        <v>778.6472822410934</v>
       </c>
       <c r="O21" t="n">
-        <v>1270.789775072916</v>
+        <v>946.2314501067035</v>
       </c>
       <c r="P21" t="n">
-        <v>1405.290844266289</v>
+        <v>1097.834127233839</v>
       </c>
       <c r="Q21" t="n">
         <v>1511.8379027716</v>
@@ -5861,7 +5861,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T21" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U21" t="n">
         <v>1319.064612101715</v>
@@ -5870,13 +5870,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W21" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X21" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y21" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>337.665736955383</v>
+        <v>713.590385906296</v>
       </c>
       <c r="C22" t="n">
-        <v>165.1040254386079</v>
+        <v>541.0286743895209</v>
       </c>
       <c r="D22" t="n">
-        <v>165.1040254386079</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="E22" t="n">
-        <v>165.1040254386079</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F22" t="n">
-        <v>33.45485054850599</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G22" t="n">
         <v>33.45485054850599</v>
@@ -5910,22 +5910,22 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J22" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K22" t="n">
-        <v>418.568562451758</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L22" t="n">
-        <v>769.144789594209</v>
+        <v>919.1520231542094</v>
       </c>
       <c r="M22" t="n">
-        <v>861.7096435212256</v>
+        <v>1204.294129106831</v>
       </c>
       <c r="N22" t="n">
-        <v>952.0735121144794</v>
+        <v>1294.657997700085</v>
       </c>
       <c r="O22" t="n">
-        <v>1035.539170576305</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P22" t="n">
         <v>1449.542946114066</v>
@@ -5937,25 +5937,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S22" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T22" t="n">
-        <v>1280.695918248114</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U22" t="n">
-        <v>1002.295781026849</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="V22" t="n">
-        <v>1002.295781026849</v>
+        <v>1422.827163705579</v>
       </c>
       <c r="W22" t="n">
-        <v>1002.295781026849</v>
+        <v>1150.800759291871</v>
       </c>
       <c r="X22" t="n">
-        <v>756.9040263602619</v>
+        <v>905.4090046252832</v>
       </c>
       <c r="Y22" t="n">
-        <v>529.4843556743701</v>
+        <v>905.4090046252832</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>486.1276593494698</v>
+        <v>731.2390367702201</v>
       </c>
       <c r="C23" t="n">
-        <v>486.1276593494698</v>
+        <v>731.2390367702201</v>
       </c>
       <c r="D23" t="n">
-        <v>486.1276593494698</v>
+        <v>731.2390367702201</v>
       </c>
       <c r="E23" t="n">
-        <v>486.1276593494698</v>
+        <v>731.2390367702201</v>
       </c>
       <c r="F23" t="n">
-        <v>486.1276593494698</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="G23" t="n">
-        <v>86.07299384436777</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H23" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I23" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524179</v>
       </c>
       <c r="J23" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073323</v>
       </c>
       <c r="K23" t="n">
         <v>362.9849282099026</v>
@@ -5998,7 +5998,7 @@
         <v>570.7285396968683</v>
       </c>
       <c r="M23" t="n">
-        <v>801.8833353847199</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N23" t="n">
         <v>1036.7784573317</v>
@@ -6019,22 +6019,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T23" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U23" t="n">
-        <v>1672.742527425299</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V23" t="n">
-        <v>1310.125577359126</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="W23" t="n">
-        <v>905.2701227701591</v>
+        <v>731.2390367702201</v>
       </c>
       <c r="X23" t="n">
-        <v>486.1276593494698</v>
+        <v>731.2390367702201</v>
       </c>
       <c r="Y23" t="n">
-        <v>486.1276593494698</v>
+        <v>731.2390367702201</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I24" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J24" t="n">
-        <v>124.2518767018075</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K24" t="n">
-        <v>281.1551766414592</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L24" t="n">
-        <v>434.0899791224633</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M24" t="n">
-        <v>612.5576801491798</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N24" t="n">
-        <v>795.7488901748552</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O24" t="n">
-        <v>963.3330580404652</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P24" t="n">
-        <v>1097.834127233839</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q24" t="n">
         <v>1511.8379027716</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.0002701804846</v>
+        <v>534.0796241005398</v>
       </c>
       <c r="C25" t="n">
-        <v>168.0002701804846</v>
+        <v>534.0796241005398</v>
       </c>
       <c r="D25" t="n">
-        <v>168.0002701804846</v>
+        <v>368.2016313020625</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0002701804846</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="F25" t="n">
-        <v>168.0002701804846</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G25" t="n">
-        <v>168.0002701804846</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H25" t="n">
         <v>33.45485054850599</v>
@@ -6150,22 +6150,22 @@
         <v>75.20378455015359</v>
       </c>
       <c r="K25" t="n">
-        <v>216.5126308803687</v>
+        <v>418.568562451758</v>
       </c>
       <c r="L25" t="n">
-        <v>304.3051044129577</v>
+        <v>769.1447895942089</v>
       </c>
       <c r="M25" t="n">
-        <v>718.3088799507193</v>
+        <v>861.7096435212255</v>
       </c>
       <c r="N25" t="n">
-        <v>1132.312655488481</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O25" t="n">
-        <v>1546.316431026242</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P25" t="n">
-        <v>1617.735720978399</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q25" t="n">
         <v>1667.182735391305</v>
@@ -6174,25 +6174,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S25" t="n">
-        <v>1667.925746263788</v>
+        <v>1573.203057315983</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.620609349906</v>
+        <v>1329.897920402101</v>
       </c>
       <c r="U25" t="n">
-        <v>1146.220472128641</v>
+        <v>1051.497783180836</v>
       </c>
       <c r="V25" t="n">
-        <v>859.2649639990718</v>
+        <v>1051.497783180836</v>
       </c>
       <c r="W25" t="n">
-        <v>587.2385595853634</v>
+        <v>779.4713787671274</v>
       </c>
       <c r="X25" t="n">
-        <v>587.2385595853634</v>
+        <v>534.0796241005398</v>
       </c>
       <c r="Y25" t="n">
-        <v>359.8188888994717</v>
+        <v>534.0796241005398</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>433.509516053608</v>
+        <v>731.2390367702201</v>
       </c>
       <c r="C26" t="n">
-        <v>433.509516053608</v>
+        <v>731.2390367702201</v>
       </c>
       <c r="D26" t="n">
-        <v>433.509516053608</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="E26" t="n">
-        <v>433.509516053608</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="F26" t="n">
-        <v>433.509516053608</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="G26" t="n">
-        <v>33.45485054850598</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H26" t="n">
         <v>33.45485054850598</v>
       </c>
       <c r="I26" t="n">
-        <v>83.79828774524186</v>
+        <v>83.79828774524188</v>
       </c>
       <c r="J26" t="n">
-        <v>195.5292216073326</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K26" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099028</v>
       </c>
       <c r="L26" t="n">
-        <v>570.7285396968686</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M26" t="n">
         <v>801.8833353847201</v>
@@ -6256,22 +6256,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T26" t="n">
-        <v>1672.742527425299</v>
+        <v>1558.667623891256</v>
       </c>
       <c r="U26" t="n">
-        <v>1413.627678012047</v>
+        <v>1558.667623891256</v>
       </c>
       <c r="V26" t="n">
-        <v>1051.010727945873</v>
+        <v>1558.667623891256</v>
       </c>
       <c r="W26" t="n">
-        <v>1051.010727945873</v>
+        <v>1558.667623891256</v>
       </c>
       <c r="X26" t="n">
-        <v>841.7956397539547</v>
+        <v>1139.525160470567</v>
       </c>
       <c r="Y26" t="n">
-        <v>433.509516053608</v>
+        <v>731.2390367702201</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C27" t="n">
-        <v>425.5107626718881</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D27" t="n">
-        <v>330.4204738184414</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E27" t="n">
-        <v>236.3000591453951</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F27" t="n">
         <v>152.9162207615567</v>
@@ -6308,22 +6308,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K27" t="n">
-        <v>605.2485493631987</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L27" t="n">
-        <v>758.1833518442028</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M27" t="n">
-        <v>936.6510528709192</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N27" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O27" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P27" t="n">
-        <v>1421.927499955578</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q27" t="n">
         <v>1511.8379027716</v>
@@ -6347,10 +6347,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X27" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y27" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>766.8267910921743</v>
+        <v>852.0158164890601</v>
       </c>
       <c r="C28" t="n">
-        <v>766.8267910921743</v>
+        <v>679.454104972285</v>
       </c>
       <c r="D28" t="n">
-        <v>749.9952970670822</v>
+        <v>679.454104972285</v>
       </c>
       <c r="E28" t="n">
-        <v>580.2372933178194</v>
+        <v>509.6961012230222</v>
       </c>
       <c r="F28" t="n">
-        <v>403.5302392795757</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="G28" t="n">
-        <v>238.5414622752818</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H28" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I28" t="n">
         <v>33.45485054850598</v>
       </c>
       <c r="J28" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K28" t="n">
-        <v>505.1482476164479</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L28" t="n">
-        <v>769.1447895942083</v>
+        <v>231.6025814132115</v>
       </c>
       <c r="M28" t="n">
-        <v>861.7096435212251</v>
+        <v>324.1674353402283</v>
       </c>
       <c r="N28" t="n">
-        <v>952.0735121144787</v>
+        <v>621.535395038543</v>
       </c>
       <c r="O28" t="n">
-        <v>1035.539170576304</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P28" t="n">
         <v>1449.542946114066</v>
@@ -6414,22 +6414,22 @@
         <v>1524.001055161996</v>
       </c>
       <c r="T28" t="n">
-        <v>1524.001055161996</v>
+        <v>1516.645860560526</v>
       </c>
       <c r="U28" t="n">
-        <v>1245.600917940731</v>
+        <v>1516.645860560526</v>
       </c>
       <c r="V28" t="n">
-        <v>958.6454098111615</v>
+        <v>1516.645860560526</v>
       </c>
       <c r="W28" t="n">
-        <v>958.6454098111615</v>
+        <v>1516.645860560526</v>
       </c>
       <c r="X28" t="n">
-        <v>958.6454098111615</v>
+        <v>1271.254105893939</v>
       </c>
       <c r="Y28" t="n">
-        <v>958.6454098111615</v>
+        <v>1043.834435208047</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1300.684037991914</v>
+        <v>455.864579696309</v>
       </c>
       <c r="C29" t="n">
-        <v>1300.684037991914</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D29" t="n">
-        <v>878.2743088441115</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E29" t="n">
-        <v>455.8645796963087</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F29" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G29" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H29" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I29" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524222</v>
       </c>
       <c r="J29" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073328</v>
       </c>
       <c r="K29" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099031</v>
       </c>
       <c r="L29" t="n">
-        <v>570.7285396968683</v>
+        <v>570.7285396968688</v>
       </c>
       <c r="M29" t="n">
-        <v>801.8833353847199</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N29" t="n">
         <v>1036.7784573317</v>
@@ -6481,34 +6481,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P29" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q29" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R29" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S29" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T29" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U29" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V29" t="n">
-        <v>1672.742527425299</v>
+        <v>1095.938058835243</v>
       </c>
       <c r="W29" t="n">
-        <v>1672.742527425299</v>
+        <v>1095.938058835243</v>
       </c>
       <c r="X29" t="n">
-        <v>1672.742527425299</v>
+        <v>878.2743088441119</v>
       </c>
       <c r="Y29" t="n">
-        <v>1672.742527425299</v>
+        <v>878.2743088441119</v>
       </c>
     </row>
     <row r="30">
@@ -6524,55 +6524,55 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D30" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E30" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F30" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G30" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594553</v>
       </c>
       <c r="H30" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I30" t="n">
-        <v>57.70569792707141</v>
+        <v>83.76937108752904</v>
       </c>
       <c r="J30" t="n">
-        <v>124.2518767018075</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K30" t="n">
-        <v>237.9898955472397</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L30" t="n">
-        <v>390.9246980282438</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M30" t="n">
-        <v>569.3923990549604</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N30" t="n">
-        <v>752.5836090806357</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O30" t="n">
-        <v>920.1677769462458</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P30" t="n">
-        <v>1097.834127233839</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q30" t="n">
-        <v>1511.8379027716</v>
+        <v>1511.837902771601</v>
       </c>
       <c r="R30" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S30" t="n">
         <v>1622.635830272358</v>
       </c>
       <c r="T30" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U30" t="n">
         <v>1319.064612101715</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>766.8267910921741</v>
+        <v>678.6368592491524</v>
       </c>
       <c r="C31" t="n">
-        <v>594.265079575399</v>
+        <v>506.0751477323773</v>
       </c>
       <c r="D31" t="n">
-        <v>594.265079575399</v>
+        <v>340.1971549339</v>
       </c>
       <c r="E31" t="n">
-        <v>580.2372933178194</v>
+        <v>170.4391511846373</v>
       </c>
       <c r="F31" t="n">
-        <v>403.5302392795757</v>
+        <v>170.4391511846373</v>
       </c>
       <c r="G31" t="n">
-        <v>238.5414622752818</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H31" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J31" t="n">
-        <v>75.20378455015356</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K31" t="n">
         <v>143.8101078806224</v>
       </c>
       <c r="L31" t="n">
-        <v>304.3051044129576</v>
+        <v>557.8138834183841</v>
       </c>
       <c r="M31" t="n">
-        <v>718.308879950719</v>
+        <v>650.3787373454009</v>
       </c>
       <c r="N31" t="n">
-        <v>1132.31265548848</v>
+        <v>789.7281699028754</v>
       </c>
       <c r="O31" t="n">
-        <v>1546.316431026242</v>
+        <v>1203.731945440637</v>
       </c>
       <c r="P31" t="n">
-        <v>1617.735720978398</v>
+        <v>1617.735720978399</v>
       </c>
       <c r="Q31" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R31" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S31" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T31" t="n">
-        <v>1524.001055161996</v>
+        <v>1429.437390511418</v>
       </c>
       <c r="U31" t="n">
-        <v>1245.600917940731</v>
+        <v>1429.437390511418</v>
       </c>
       <c r="V31" t="n">
-        <v>958.6454098111612</v>
+        <v>1142.481882381848</v>
       </c>
       <c r="W31" t="n">
-        <v>958.6454098111612</v>
+        <v>870.4554779681396</v>
       </c>
       <c r="X31" t="n">
-        <v>958.6454098111612</v>
+        <v>870.4554779681396</v>
       </c>
       <c r="Y31" t="n">
-        <v>958.6454098111612</v>
+        <v>870.4554779681396</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>783.7787279056881</v>
+        <v>265.2422059870931</v>
       </c>
       <c r="C32" t="n">
-        <v>361.3689987578854</v>
+        <v>265.2422059870931</v>
       </c>
       <c r="D32" t="n">
-        <v>361.3689987578854</v>
+        <v>265.2422059870931</v>
       </c>
       <c r="E32" t="n">
-        <v>361.3689987578854</v>
+        <v>265.2422059870931</v>
       </c>
       <c r="F32" t="n">
-        <v>361.3689987578854</v>
+        <v>265.2422059870931</v>
       </c>
       <c r="G32" t="n">
-        <v>308.8293076224172</v>
+        <v>265.2422059870931</v>
       </c>
       <c r="H32" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I32" t="n">
-        <v>83.79828774524233</v>
+        <v>83.79828774524188</v>
       </c>
       <c r="J32" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K32" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099028</v>
       </c>
       <c r="L32" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M32" t="n">
-        <v>801.8833353847205</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N32" t="n">
         <v>1036.7784573317</v>
@@ -6727,25 +6727,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S32" t="n">
-        <v>1619.698045908997</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T32" t="n">
-        <v>1405.510527385114</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U32" t="n">
-        <v>1146.395677971862</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V32" t="n">
-        <v>783.7787279056881</v>
+        <v>1095.938058835243</v>
       </c>
       <c r="W32" t="n">
-        <v>783.7787279056881</v>
+        <v>1095.938058835243</v>
       </c>
       <c r="X32" t="n">
-        <v>783.7787279056881</v>
+        <v>1095.938058835243</v>
       </c>
       <c r="Y32" t="n">
-        <v>783.7787279056881</v>
+        <v>687.651935134896</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C33" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D33" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E33" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F33" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G33" t="n">
         <v>68.24978812594551</v>
       </c>
       <c r="H33" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I33" t="n">
-        <v>83.769371087529</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J33" t="n">
-        <v>474.8738748284773</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K33" t="n">
-        <v>588.6118936739095</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L33" t="n">
-        <v>741.5466961549135</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M33" t="n">
-        <v>920.0143971816301</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N33" t="n">
-        <v>1103.205607207305</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O33" t="n">
-        <v>1270.789775072915</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P33" t="n">
         <v>1405.290844266289</v>
@@ -6809,7 +6809,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T33" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U33" t="n">
         <v>1319.064612101715</v>
@@ -6818,13 +6818,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W33" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X33" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y33" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>883.3483896555588</v>
+        <v>494.8003866784664</v>
       </c>
       <c r="C34" t="n">
-        <v>710.7866781387837</v>
+        <v>494.8003866784664</v>
       </c>
       <c r="D34" t="n">
-        <v>544.9086853403064</v>
+        <v>494.8003866784664</v>
       </c>
       <c r="E34" t="n">
-        <v>375.1506815910436</v>
+        <v>494.8003866784664</v>
       </c>
       <c r="F34" t="n">
-        <v>198.4436275527998</v>
+        <v>318.0933326402226</v>
       </c>
       <c r="G34" t="n">
-        <v>33.45485054850597</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H34" t="n">
-        <v>33.45485054850597</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I34" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J34" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K34" t="n">
-        <v>230.3897930453122</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L34" t="n">
-        <v>318.1822665779013</v>
+        <v>557.8138834183841</v>
       </c>
       <c r="M34" t="n">
-        <v>732.1860421156626</v>
+        <v>650.3787373454009</v>
       </c>
       <c r="N34" t="n">
-        <v>1146.189817653424</v>
+        <v>740.7426059386546</v>
       </c>
       <c r="O34" t="n">
-        <v>1229.655476115249</v>
+        <v>1154.746381476416</v>
       </c>
       <c r="P34" t="n">
-        <v>1449.542946114065</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q34" t="n">
         <v>1667.182735391305</v>
@@ -6885,25 +6885,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S34" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T34" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U34" t="n">
-        <v>1394.342390204034</v>
+        <v>1245.600917940732</v>
       </c>
       <c r="V34" t="n">
-        <v>1107.386882074464</v>
+        <v>958.6454098111619</v>
       </c>
       <c r="W34" t="n">
-        <v>1107.386882074464</v>
+        <v>686.6190053974535</v>
       </c>
       <c r="X34" t="n">
-        <v>1107.386882074464</v>
+        <v>686.6190053974535</v>
       </c>
       <c r="Y34" t="n">
-        <v>1075.167008374546</v>
+        <v>686.6190053974535</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1360.583196495746</v>
+        <v>1153.648765918023</v>
       </c>
       <c r="C35" t="n">
-        <v>938.1734673479427</v>
+        <v>731.2390367702201</v>
       </c>
       <c r="D35" t="n">
-        <v>515.7637382001399</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="E35" t="n">
-        <v>93.35400905233695</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="F35" t="n">
-        <v>93.35400905233695</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="G35" t="n">
-        <v>93.35400905233695</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H35" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I35" t="n">
-        <v>83.79828774524178</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J35" t="n">
         <v>195.5292216073324</v>
@@ -6964,25 +6964,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S35" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T35" t="n">
-        <v>1619.698045908998</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U35" t="n">
-        <v>1360.583196495746</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V35" t="n">
-        <v>1360.583196495746</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="W35" t="n">
-        <v>1360.583196495746</v>
+        <v>1153.648765918023</v>
       </c>
       <c r="X35" t="n">
-        <v>1360.583196495746</v>
+        <v>1153.648765918023</v>
       </c>
       <c r="Y35" t="n">
-        <v>1360.583196495746</v>
+        <v>1153.648765918023</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C36" t="n">
-        <v>425.5107626718882</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D36" t="n">
-        <v>330.4204738184415</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E36" t="n">
-        <v>236.3000591453952</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F36" t="n">
-        <v>152.9162207615568</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G36" t="n">
         <v>68.24978812594551</v>
@@ -7016,25 +7016,25 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J36" t="n">
-        <v>150.3155498622651</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K36" t="n">
-        <v>264.0535687076974</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L36" t="n">
-        <v>416.9883711887014</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M36" t="n">
-        <v>705.8384873588336</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N36" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O36" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P36" t="n">
-        <v>1421.927499955579</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q36" t="n">
         <v>1511.8379027716</v>
@@ -7055,13 +7055,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W36" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X36" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y36" t="n">
-        <v>653.2711249150091</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>210.1619045867498</v>
+        <v>433.2451045825647</v>
       </c>
       <c r="C37" t="n">
-        <v>210.1619045867498</v>
+        <v>433.2451045825647</v>
       </c>
       <c r="D37" t="n">
-        <v>210.1619045867498</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E37" t="n">
         <v>210.1619045867498</v>
@@ -7095,25 +7095,25 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J37" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K37" t="n">
-        <v>505.1482476164479</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L37" t="n">
-        <v>790.2903535690692</v>
+        <v>557.8138834183841</v>
       </c>
       <c r="M37" t="n">
-        <v>1204.294129106831</v>
+        <v>650.3787373454009</v>
       </c>
       <c r="N37" t="n">
-        <v>1294.657997700085</v>
+        <v>1064.382512883162</v>
       </c>
       <c r="O37" t="n">
-        <v>1378.12365616191</v>
+        <v>1478.386288420924</v>
       </c>
       <c r="P37" t="n">
-        <v>1449.542946114066</v>
+        <v>1549.80557837308</v>
       </c>
       <c r="Q37" t="n">
         <v>1667.182735391305</v>
@@ -7125,22 +7125,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T37" t="n">
-        <v>1440.147594009051</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U37" t="n">
-        <v>1161.747456787786</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="V37" t="n">
-        <v>874.7919486582161</v>
+        <v>1142.481882381848</v>
       </c>
       <c r="W37" t="n">
-        <v>874.7919486582161</v>
+        <v>870.4554779681393</v>
       </c>
       <c r="X37" t="n">
-        <v>629.4001939916286</v>
+        <v>625.0637233015518</v>
       </c>
       <c r="Y37" t="n">
-        <v>401.9805233057369</v>
+        <v>625.0637233015518</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>433.509516053608</v>
+        <v>1257.081095842824</v>
       </c>
       <c r="C38" t="n">
-        <v>433.509516053608</v>
+        <v>834.6713666950216</v>
       </c>
       <c r="D38" t="n">
-        <v>433.509516053608</v>
+        <v>834.6713666950216</v>
       </c>
       <c r="E38" t="n">
-        <v>433.509516053608</v>
+        <v>412.2616375472186</v>
       </c>
       <c r="F38" t="n">
-        <v>433.509516053608</v>
+        <v>412.2616375472186</v>
       </c>
       <c r="G38" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H38" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I38" t="n">
-        <v>83.79828774524233</v>
+        <v>83.79828774524188</v>
       </c>
       <c r="J38" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K38" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099028</v>
       </c>
       <c r="L38" t="n">
-        <v>570.7285396968691</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M38" t="n">
-        <v>801.8833353847207</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N38" t="n">
         <v>1036.7784573317</v>
@@ -7192,34 +7192,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P38" t="n">
-        <v>1447.88852771026</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q38" t="n">
-        <v>1590.048899840628</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R38" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S38" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T38" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U38" t="n">
-        <v>1413.627678012047</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="V38" t="n">
-        <v>1051.010727945873</v>
+        <v>1257.081095842824</v>
       </c>
       <c r="W38" t="n">
-        <v>646.1552733569067</v>
+        <v>1257.081095842824</v>
       </c>
       <c r="X38" t="n">
-        <v>433.509516053608</v>
+        <v>1257.081095842824</v>
       </c>
       <c r="Y38" t="n">
-        <v>433.509516053608</v>
+        <v>1257.081095842824</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C39" t="n">
-        <v>425.5107626718882</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D39" t="n">
-        <v>330.4204738184415</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E39" t="n">
-        <v>236.3000591453952</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F39" t="n">
-        <v>152.9162207615568</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G39" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H39" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I39" t="n">
-        <v>83.76937108752902</v>
+        <v>57.70569792707142</v>
       </c>
       <c r="J39" t="n">
-        <v>474.8738748284774</v>
+        <v>448.8102016680198</v>
       </c>
       <c r="K39" t="n">
-        <v>605.2485493631991</v>
+        <v>562.5482205134522</v>
       </c>
       <c r="L39" t="n">
-        <v>758.1833518442032</v>
+        <v>715.4830229944563</v>
       </c>
       <c r="M39" t="n">
-        <v>936.6510528709197</v>
+        <v>893.9507240211728</v>
       </c>
       <c r="N39" t="n">
-        <v>1119.842262896595</v>
+        <v>1077.141934046848</v>
       </c>
       <c r="O39" t="n">
-        <v>1287.426430762205</v>
+        <v>1244.726101912458</v>
       </c>
       <c r="P39" t="n">
-        <v>1421.927499955579</v>
+        <v>1379.227171105832</v>
       </c>
       <c r="Q39" t="n">
         <v>1511.8379027716</v>
@@ -7292,13 +7292,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W39" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X39" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y39" t="n">
-        <v>653.2711249150091</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103.9960426433032</v>
+        <v>861.4576288432354</v>
       </c>
       <c r="C40" t="n">
-        <v>103.9960426433032</v>
+        <v>688.8959173264603</v>
       </c>
       <c r="D40" t="n">
-        <v>103.9960426433032</v>
+        <v>523.017924527983</v>
       </c>
       <c r="E40" t="n">
-        <v>103.9960426433032</v>
+        <v>353.2599207787203</v>
       </c>
       <c r="F40" t="n">
-        <v>103.9960426433032</v>
+        <v>176.5528667404765</v>
       </c>
       <c r="G40" t="n">
-        <v>103.9960426433032</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H40" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I40" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="J40" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K40" t="n">
-        <v>505.1482476164479</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L40" t="n">
-        <v>769.144789594209</v>
+        <v>231.6025814132115</v>
       </c>
       <c r="M40" t="n">
-        <v>861.7096435212256</v>
+        <v>645.6063569509731</v>
       </c>
       <c r="N40" t="n">
-        <v>952.0735121144794</v>
+        <v>1059.610132488735</v>
       </c>
       <c r="O40" t="n">
-        <v>1035.539170576305</v>
+        <v>1473.613908026496</v>
       </c>
       <c r="P40" t="n">
-        <v>1449.542946114066</v>
+        <v>1545.033197978652</v>
       </c>
       <c r="Q40" t="n">
         <v>1667.182735391305</v>
@@ -7362,22 +7362,22 @@
         <v>1524.001055161996</v>
       </c>
       <c r="T40" t="n">
-        <v>1524.001055161996</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U40" t="n">
-        <v>1327.607999258048</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V40" t="n">
-        <v>1040.652491128478</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="W40" t="n">
-        <v>768.6260867147696</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="X40" t="n">
-        <v>523.2343320481821</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="Y40" t="n">
-        <v>295.8146613622903</v>
+        <v>1053.276247562223</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>433.509516053608</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="C41" t="n">
-        <v>433.509516053608</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D41" t="n">
-        <v>433.509516053608</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E41" t="n">
-        <v>433.509516053608</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F41" t="n">
-        <v>433.509516053608</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G41" t="n">
-        <v>33.45485054850597</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H41" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I41" t="n">
-        <v>83.79828774524194</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J41" t="n">
-        <v>195.5292216073325</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K41" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L41" t="n">
         <v>570.7285396968684</v>
       </c>
       <c r="M41" t="n">
-        <v>801.88333538472</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N41" t="n">
         <v>1036.7784573317</v>
@@ -7438,25 +7438,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S41" t="n">
-        <v>1619.698045908997</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T41" t="n">
-        <v>1405.510527385114</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U41" t="n">
-        <v>1146.395677971862</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V41" t="n">
-        <v>783.7787279056881</v>
+        <v>1095.938058835243</v>
       </c>
       <c r="W41" t="n">
-        <v>783.7787279056881</v>
+        <v>1095.938058835243</v>
       </c>
       <c r="X41" t="n">
-        <v>433.509516053608</v>
+        <v>1095.938058835243</v>
       </c>
       <c r="Y41" t="n">
-        <v>433.509516053608</v>
+        <v>708.8839731275193</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H42" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I42" t="n">
-        <v>83.769371087529</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J42" t="n">
-        <v>150.315549862265</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K42" t="n">
-        <v>281.1551766414588</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L42" t="n">
-        <v>434.0899791224628</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M42" t="n">
-        <v>612.5576801491793</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N42" t="n">
-        <v>795.7488901748548</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O42" t="n">
-        <v>963.3330580404647</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P42" t="n">
-        <v>1097.834127233838</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q42" t="n">
         <v>1511.8379027716</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1017.893809287537</v>
+        <v>706.6413356173149</v>
       </c>
       <c r="C43" t="n">
-        <v>845.3320977707623</v>
+        <v>534.0796241005398</v>
       </c>
       <c r="D43" t="n">
-        <v>679.454104972285</v>
+        <v>368.2016313020625</v>
       </c>
       <c r="E43" t="n">
-        <v>509.6961012230222</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="F43" t="n">
-        <v>332.9890471847784</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0002701804846</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H43" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I43" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J43" t="n">
         <v>161.7834697148434</v>
       </c>
       <c r="K43" t="n">
-        <v>350.8141989856833</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6066725182724</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M43" t="n">
-        <v>531.1715264452891</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N43" t="n">
-        <v>621.5353950385429</v>
+        <v>775.8694436693075</v>
       </c>
       <c r="O43" t="n">
-        <v>1035.539170576304</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P43" t="n">
         <v>1449.542946114066</v>
@@ -7602,19 +7602,19 @@
         <v>1280.695918248114</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.712428006525</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.712428006525</v>
+        <v>993.7404101185448</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.712428006525</v>
+        <v>934.0610063032066</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.712428006525</v>
+        <v>934.0610063032066</v>
       </c>
       <c r="Y43" t="n">
-        <v>1209.712428006525</v>
+        <v>706.6413356173149</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>433.509516053608</v>
+        <v>428.5370857216436</v>
       </c>
       <c r="C44" t="n">
-        <v>433.509516053608</v>
+        <v>428.5370857216436</v>
       </c>
       <c r="D44" t="n">
-        <v>433.509516053608</v>
+        <v>428.5370857216436</v>
       </c>
       <c r="E44" t="n">
-        <v>433.509516053608</v>
+        <v>428.5370857216436</v>
       </c>
       <c r="F44" t="n">
-        <v>433.509516053608</v>
+        <v>428.5370857216436</v>
       </c>
       <c r="G44" t="n">
         <v>33.45485054850599</v>
@@ -7645,19 +7645,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I44" t="n">
-        <v>83.7982877452425</v>
+        <v>83.79828774524201</v>
       </c>
       <c r="J44" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K44" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L44" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M44" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N44" t="n">
         <v>1036.7784573317</v>
@@ -7669,7 +7669,7 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q44" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R44" t="n">
         <v>1672.742527425299</v>
@@ -7678,22 +7678,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T44" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U44" t="n">
-        <v>1413.627678012047</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V44" t="n">
-        <v>1051.010727945873</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="W44" t="n">
-        <v>646.1552733569067</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="X44" t="n">
-        <v>646.1552733569067</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="Y44" t="n">
-        <v>433.509516053608</v>
+        <v>428.5370857216436</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C45" t="n">
-        <v>425.5107626718881</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D45" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E45" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F45" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G45" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H45" t="n">
         <v>33.45485054850599</v>
@@ -7727,25 +7727,25 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J45" t="n">
-        <v>474.8738748284774</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K45" t="n">
-        <v>605.2485493631991</v>
+        <v>264.0535687076974</v>
       </c>
       <c r="L45" t="n">
-        <v>758.1833518442032</v>
+        <v>416.9883711887014</v>
       </c>
       <c r="M45" t="n">
-        <v>936.6510528709197</v>
+        <v>595.4560722154181</v>
       </c>
       <c r="N45" t="n">
-        <v>1119.842262896595</v>
+        <v>778.6472822410934</v>
       </c>
       <c r="O45" t="n">
-        <v>1287.426430762205</v>
+        <v>946.2314501067035</v>
       </c>
       <c r="P45" t="n">
-        <v>1421.927499955578</v>
+        <v>1097.834127233839</v>
       </c>
       <c r="Q45" t="n">
         <v>1511.8379027716</v>
@@ -7769,10 +7769,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X45" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y45" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.2372933178194</v>
+        <v>529.8953869858492</v>
       </c>
       <c r="C46" t="n">
-        <v>580.2372933178194</v>
+        <v>529.8953869858492</v>
       </c>
       <c r="D46" t="n">
-        <v>580.2372933178194</v>
+        <v>364.0173941873719</v>
       </c>
       <c r="E46" t="n">
-        <v>580.2372933178194</v>
+        <v>194.2593904381092</v>
       </c>
       <c r="F46" t="n">
-        <v>403.5302392795757</v>
+        <v>194.2593904381092</v>
       </c>
       <c r="G46" t="n">
-        <v>238.5414622752818</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H46" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I46" t="n">
         <v>33.45485054850599</v>
@@ -7812,16 +7812,16 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L46" t="n">
-        <v>592.940721149037</v>
+        <v>790.2903535690692</v>
       </c>
       <c r="M46" t="n">
-        <v>861.7096435212254</v>
+        <v>1204.294129106831</v>
       </c>
       <c r="N46" t="n">
-        <v>952.0735121144792</v>
+        <v>1294.657997700085</v>
       </c>
       <c r="O46" t="n">
-        <v>1035.539170576305</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P46" t="n">
         <v>1449.542946114066</v>
@@ -7833,25 +7833,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S46" t="n">
-        <v>1531.822845518856</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T46" t="n">
-        <v>1531.822845518856</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U46" t="n">
-        <v>1531.822845518856</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.867337389286</v>
+        <v>993.7404101185448</v>
       </c>
       <c r="W46" t="n">
-        <v>1244.867337389286</v>
+        <v>721.7140057048364</v>
       </c>
       <c r="X46" t="n">
-        <v>999.4755827226984</v>
+        <v>721.7140057048364</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.0559120368066</v>
+        <v>721.7140057048364</v>
       </c>
     </row>
   </sheetData>
@@ -8771,13 +8771,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2.337840299480829</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.191365816744667</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6222042310422755</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>2.907001885183223</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.923123287322518</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.375249808503938</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2.548781809778329</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.1656317648438153</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2.583959521204308</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6222042310422724</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>268.4186533618318</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>2.907001885183223</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.923123287322518</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>2.375249808503936</v>
+        <v>61.80815327895635</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9096,16 +9096,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>258.4333044225041</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>263.942136076358</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.860536639450492</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>263.706033390664</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>17.27435144824426</v>
       </c>
       <c r="Q18" t="n">
-        <v>225.6186453066073</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>73.43689191893549</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M19" t="n">
-        <v>324.6857794047926</v>
+        <v>194.52247679354</v>
       </c>
       <c r="N19" t="n">
-        <v>326.9089969136441</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>333.8768859352886</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>17.27435144824426</v>
       </c>
       <c r="Q21" t="n">
-        <v>16.80470271645413</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>265.4381349594564</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>194.52247679354</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>346.0449349349548</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>43.60129403456507</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.3670431532728</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9798,25 +9798,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>73.43689191893563</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>265.4381349594563</v>
       </c>
       <c r="M25" t="n">
-        <v>324.6857794047928</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>333.876885935289</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9956,25 +9956,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>16.80470271645345</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10032,22 +10032,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>177.9839075203751</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>209.0950415202636</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P28" t="n">
         <v>346.0449349349549</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>43.60129403456506</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.3670431532726</v>
+        <v>16.80470271645413</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10275,19 +10275,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>73.43689191893549</v>
+        <v>329.5063656617905</v>
       </c>
       <c r="M31" t="n">
-        <v>324.6857794047926</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>326.9089969136441</v>
+        <v>49.48036764062704</v>
       </c>
       <c r="O31" t="n">
-        <v>333.8768859352887</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>346.0449349349551</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>16.80470271645464</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>329.5063656617905</v>
       </c>
       <c r="M34" t="n">
-        <v>324.6857794047926</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>326.908996913644</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>333.876885935289</v>
       </c>
       <c r="P34" t="n">
-        <v>149.9678586329899</v>
+        <v>225.6336107934283</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10664,7 +10664,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,10 +10673,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>111.4973890337531</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>233.1440055677638</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>199.3430630505377</v>
+        <v>329.5063656617905</v>
       </c>
       <c r="M37" t="n">
-        <v>324.6857794047927</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>326.9089969136443</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>333.8768859352888</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>68.61630566193776</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>16.80470271645392</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>43.13164530277459</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>177.9839075203757</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>324.6857794047928</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>326.9089969136442</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>333.8768859352888</v>
       </c>
       <c r="P40" t="n">
-        <v>346.0449349349548</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>73.43689191893554</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>17.27435144824383</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.3670431532726</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11220,7 +11220,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>121.6408140811829</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11232,10 +11232,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>333.8768859352888</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="P43" t="n">
-        <v>346.0449349349548</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11375,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>16.8047027164539</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>17.27435144824426</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11460,10 +11460,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>199.3430630505377</v>
       </c>
       <c r="M46" t="n">
-        <v>177.9839075203755</v>
+        <v>324.6857794047926</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>346.0449349349548</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23260,7 +23260,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>430.4984991661506</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23272,7 +23272,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>394.1106012944824</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H11" t="n">
         <v>286.1292424873029</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.5714639696243</v>
+        <v>79.69781087889746</v>
       </c>
       <c r="T11" t="n">
-        <v>217.819703146337</v>
+        <v>214.5571542240768</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6292234284552</v>
+        <v>253.3666745061949</v>
       </c>
       <c r="V11" t="n">
-        <v>356.1171274747849</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>397.5443511208167</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>400.9407135410828</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>62.71451543789636</v>
+        <v>59.45196651563609</v>
       </c>
       <c r="T12" t="n">
         <v>128.8537753079323</v>
@@ -23399,7 +23399,7 @@
         <v>193.8637938363604</v>
       </c>
       <c r="W12" t="n">
-        <v>180.2069778018777</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X12" t="n">
         <v>153.3187614035088</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>186.637883609537</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -23433,10 +23433,10 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H13" t="n">
-        <v>135.1979190266826</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I13" t="n">
-        <v>84.36642380163354</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.11412279404073</v>
+        <v>17.72522696250731</v>
       </c>
       <c r="S13" t="n">
-        <v>157.5652879271376</v>
+        <v>154.3027390048774</v>
       </c>
       <c r="T13" t="n">
         <v>243.400138899798</v>
@@ -23475,10 +23475,10 @@
         <v>275.6484088706061</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>280.8234041260135</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>266.4324872788445</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>419.1629216893318</v>
+        <v>91.43971920633118</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>100.9538314035724</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -23509,10 +23509,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3731502167427</v>
+        <v>105.1428512565909</v>
       </c>
       <c r="H14" t="n">
-        <v>286.1292424873029</v>
+        <v>275.4723147864676</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.5714639696243</v>
+        <v>58.85905191223047</v>
       </c>
       <c r="T14" t="n">
-        <v>214.5571542240768</v>
+        <v>213.2645266776046</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6292234284552</v>
+        <v>256.5459763427902</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>28.39392499178422</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>411.6884898642221</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>400.9407135410828</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>116.8283131467052</v>
+        <v>90.10243169077111</v>
       </c>
       <c r="C15" t="n">
-        <v>102.1293476294639</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>84.52551230889576</v>
+        <v>83.96874833914443</v>
       </c>
       <c r="H15" t="n">
-        <v>41.26298946135317</v>
+        <v>35.8858216482285</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>62.71451543789636</v>
+        <v>52.37286889448902</v>
       </c>
       <c r="T15" t="n">
-        <v>128.8537753079323</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>174.5728047847957</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>193.8637938363604</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>122.3472683378446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>186.637883609537</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -23664,16 +23664,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9305612960722</v>
+        <v>163.4637890867466</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4604679489429</v>
+        <v>134.3104386696661</v>
       </c>
       <c r="I16" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>154.6916348364108</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.400138899798</v>
+        <v>241.4057485508613</v>
       </c>
       <c r="U16" t="n">
-        <v>272.3858599483459</v>
+        <v>275.6229485682793</v>
       </c>
       <c r="V16" t="n">
-        <v>280.8234041260135</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>64.35594889389029</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,16 +23740,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>26.50339857816488</v>
       </c>
       <c r="F17" t="n">
-        <v>229.1664671486716</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T17" t="n">
         <v>212.0456433386444</v>
@@ -23791,16 +23791,16 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8.983817008559384</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>101.4591923244099</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>133.1999654356588</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>3.85094292373384</v>
       </c>
       <c r="C20" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>247.7786301167651</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>71.41911212276489</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>272.6207125031721</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>44.6073003566604</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>133.1999654356588</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>277.541828510494</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24217,13 +24217,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>5.403123438559476</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H23" t="n">
-        <v>220.528750640269</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T23" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>296.2785691178246</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I25" t="n">
         <v>69.83578017384922</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.4854441907739</v>
+        <v>48.70998213244636</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097517</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24457,10 +24457,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H26" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T26" t="n">
-        <v>212.0456433386444</v>
+        <v>99.11148883994184</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>207.8281014764833</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>147.5560337856514</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.8720855447433</v>
+        <v>233.5904428892885</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>53.69867024100807</v>
+        <v>3.850942923733783</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208601</v>
       </c>
       <c r="D29" t="n">
-        <v>13.36505512097523</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>11.25136553696308</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>5.403123438559646</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>396.054118850051</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T29" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.5237009191198</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>199.4639262952628</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.1729153167663</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>27.72443160448091</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T31" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>3.85094292373384</v>
       </c>
       <c r="C32" t="n">
-        <v>15.57541623208624</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24931,10 +24931,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>344.0398246259375</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>43.15123061897091</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>84.58253757295952</v>
       </c>
       <c r="H34" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>69.83578017384923</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.8720855447433</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.2477990161137</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25162,7 +25162,7 @@
         <v>13.36505512097506</v>
       </c>
       <c r="E35" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -25171,7 +25171,7 @@
         <v>396.054118850051</v>
       </c>
       <c r="H35" t="n">
-        <v>213.3205455843795</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T35" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>355.4734204086376</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25317,10 +25317,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>111.4272685864059</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T37" t="n">
-        <v>10.60310146265707</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696291</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>293.6561122244976</v>
       </c>
       <c r="H38" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>204.4317390562167</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.3388892342509</v>
+        <v>154.8718186398589</v>
       </c>
       <c r="H40" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>81.18701050414296</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>68.18451905292312</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>21.01971761269704</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I43" t="n">
         <v>69.83578017384922</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>205.342480509879</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>210.2235305923865</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25879,7 +25879,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>4.922706028644768</v>
       </c>
       <c r="H44" t="n">
         <v>272.6207125031721</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T44" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>193.6839627330774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>4.142394743543775</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>7.743572453290403</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6161358490523</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2680.756191027157</v>
+        <v>2680.756191027155</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2680.756191027145</v>
+        <v>267289.8854606755</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>337885.6184290806</v>
+        <v>337885.6184290808</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>337885.6184290808</v>
+        <v>337885.6184290807</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>337885.6184290807</v>
+        <v>337885.6184290808</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>337885.6184290806</v>
+        <v>337885.6184290807</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>337885.6184290806</v>
+        <v>337885.6184290807</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>337885.6184290806</v>
+        <v>337885.6184290807</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>337885.6184290807</v>
+        <v>337885.6184290806</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>337885.6184290806</v>
+        <v>337885.6184290807</v>
       </c>
     </row>
     <row r="16">
@@ -26322,37 +26322,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>773.8268907947324</v>
+        <v>773.8268907947322</v>
       </c>
       <c r="F2" t="n">
-        <v>773.8268907947324</v>
+        <v>77028.3531383027</v>
       </c>
       <c r="G2" t="n">
-        <v>97378.78047220709</v>
+        <v>97378.78047220716</v>
       </c>
       <c r="H2" t="n">
         <v>97378.78047220713</v>
       </c>
       <c r="I2" t="n">
+        <v>97378.78047220713</v>
+      </c>
+      <c r="J2" t="n">
+        <v>97378.7804722071</v>
+      </c>
+      <c r="K2" t="n">
         <v>97378.78047220716</v>
       </c>
-      <c r="J2" t="n">
-        <v>97378.78047220707</v>
-      </c>
-      <c r="K2" t="n">
-        <v>97378.78047220709</v>
-      </c>
       <c r="L2" t="n">
-        <v>97378.7804722071</v>
+        <v>97378.78047220712</v>
       </c>
       <c r="M2" t="n">
-        <v>97378.78047220715</v>
+        <v>97378.78047220716</v>
       </c>
       <c r="N2" t="n">
         <v>97378.78047220713</v>
       </c>
       <c r="O2" t="n">
-        <v>97378.78047220707</v>
+        <v>97378.78047220713</v>
       </c>
       <c r="P2" t="n">
         <v>97378.78047220712</v>
@@ -26377,10 +26377,10 @@
         <v>3113.051650297576</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>298393.6377205544</v>
       </c>
       <c r="G3" t="n">
-        <v>368824.7160594862</v>
+        <v>77857.57618975465</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>813.0402416229924</v>
+        <v>813.0402416229497</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>80173.00972522391</v>
       </c>
       <c r="O3" t="n">
-        <v>99851.65483116549</v>
+        <v>21078.32660118333</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>71.91955883611553</v>
+        <v>71.91955883611547</v>
       </c>
       <c r="F4" t="n">
-        <v>71.91955883611548</v>
+        <v>7605.871183118875</v>
       </c>
       <c r="G4" t="n">
-        <v>9594.864639660438</v>
+        <v>9594.864639660447</v>
       </c>
       <c r="H4" t="n">
+        <v>9594.864639660447</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9594.864639660442</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9594.864639660442</v>
+      </c>
+      <c r="K4" t="n">
         <v>9594.864639660449</v>
       </c>
-      <c r="I4" t="n">
-        <v>9594.864639660447</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9594.86463966044</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>9594.864639660445</v>
+      </c>
+      <c r="M4" t="n">
         <v>9594.864639660442</v>
       </c>
-      <c r="L4" t="n">
-        <v>9594.864639660449</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9594.864639660447</v>
-      </c>
       <c r="N4" t="n">
-        <v>9594.864639660447</v>
+        <v>9594.864639660444</v>
       </c>
       <c r="O4" t="n">
-        <v>9594.86463966044</v>
+        <v>9594.864639660442</v>
       </c>
       <c r="P4" t="n">
-        <v>9594.864639660447</v>
+        <v>9594.864639660445</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>256.4018338459632</v>
+        <v>256.4018338459631</v>
       </c>
       <c r="F5" t="n">
-        <v>256.4018338459632</v>
+        <v>25801.1793506296</v>
       </c>
       <c r="G5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="H5" t="n">
         <v>32636.50261996421</v>
@@ -26493,13 +26493,13 @@
         <v>32636.50261996421</v>
       </c>
       <c r="J5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="K5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="L5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="M5" t="n">
         <v>32636.50261996421</v>
@@ -26508,7 +26508,7 @@
         <v>32636.50261996421</v>
       </c>
       <c r="O5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="P5" t="n">
         <v>32636.50261996421</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-2667.546152184922</v>
+        <v>-4003.078033843476</v>
       </c>
       <c r="F6" t="n">
-        <v>445.5054981126538</v>
+        <v>-255631.2762086118</v>
       </c>
       <c r="G6" t="n">
-        <v>-313677.3028469038</v>
+        <v>-23441.91389894687</v>
       </c>
       <c r="H6" t="n">
-        <v>55147.41321258248</v>
+        <v>54415.66229080775</v>
       </c>
       <c r="I6" t="n">
-        <v>55147.41321258251</v>
+        <v>54415.66229080775</v>
       </c>
       <c r="J6" t="n">
-        <v>55147.41321258243</v>
+        <v>54415.66229080773</v>
       </c>
       <c r="K6" t="n">
-        <v>55147.41321258244</v>
+        <v>54415.66229080777</v>
       </c>
       <c r="L6" t="n">
-        <v>55147.41321258245</v>
+        <v>54415.66229080773</v>
       </c>
       <c r="M6" t="n">
-        <v>54334.3729709595</v>
+        <v>53602.62204918483</v>
       </c>
       <c r="N6" t="n">
-        <v>55147.41321258248</v>
+        <v>-25757.34743441616</v>
       </c>
       <c r="O6" t="n">
-        <v>-44704.24161858305</v>
+        <v>33337.33568962441</v>
       </c>
       <c r="P6" t="n">
-        <v>55147.41321258246</v>
+        <v>54415.66229080773</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>2.662332998740292</v>
       </c>
       <c r="F3" t="n">
-        <v>2.662332998740292</v>
+        <v>261.5087399883931</v>
       </c>
       <c r="G3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="H3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="I3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="J3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="K3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="L3" t="n">
-        <v>330.771385463287</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="M3" t="n">
         <v>330.7713854632872</v>
       </c>
       <c r="N3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="O3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="P3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="F4" t="n">
-        <v>3.262548922260276</v>
+        <v>330.5968555737275</v>
       </c>
       <c r="G4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="H4" t="n">
         <v>418.1856318563248</v>
@@ -26816,10 +26816,10 @@
         <v>418.1856318563247</v>
       </c>
       <c r="K4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="L4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M4" t="n">
         <v>418.1856318563248</v>
@@ -26828,7 +26828,7 @@
         <v>418.1856318563248</v>
       </c>
       <c r="O4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P4" t="n">
         <v>418.1856318563248</v>
@@ -26971,10 +26971,10 @@
         <v>2.662332998740292</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>258.8464069896528</v>
       </c>
       <c r="G3" t="n">
-        <v>328.1090524645468</v>
+        <v>69.26264547489404</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>327.3343066514672</v>
       </c>
       <c r="G4" t="n">
-        <v>414.9230829340644</v>
+        <v>87.58877628259734</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.262548922260447</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>327.3343066514672</v>
       </c>
       <c r="O4" t="n">
-        <v>414.9230829340642</v>
+        <v>87.58877628259734</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>327.3343066514672</v>
       </c>
       <c r="O4" t="n">
-        <v>414.9230829340644</v>
+        <v>87.58877628259734</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01070284622609162</v>
+        <v>1.051291417038765</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1096105239129608</v>
+        <v>10.76653822474826</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>40.52991235538705</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9083906948817444</v>
+        <v>89.22704490689401</v>
       </c>
       <c r="K14" t="n">
-        <v>1.361442175632203</v>
+        <v>133.728210590145</v>
       </c>
       <c r="L14" t="n">
-        <v>1.688989405823955</v>
+        <v>165.9016702943451</v>
       </c>
       <c r="M14" t="n">
-        <v>1.879326147397211</v>
+        <v>184.5975740321083</v>
       </c>
       <c r="N14" t="n">
-        <v>1.909735609237095</v>
+        <v>187.5845557707697</v>
       </c>
       <c r="O14" t="n">
-        <v>1.803309182076396</v>
+        <v>177.1307767425905</v>
       </c>
       <c r="P14" t="n">
-        <v>1.539082665869759</v>
+        <v>151.1770198844459</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.155786985397852</v>
+        <v>113.5276460117451</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6723126642497282</v>
+        <v>66.03818447556142</v>
       </c>
       <c r="S14" t="n">
-        <v>0.243891108377063</v>
+        <v>23.95630316577089</v>
       </c>
       <c r="T14" t="n">
-        <v>0.04685170935471609</v>
+        <v>4.602028178087199</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0.08410331336310123</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.5624904973335249</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05530620059647288</v>
+        <v>5.432474013721149</v>
       </c>
       <c r="I15" t="n">
-        <v>0.19716334000105</v>
+        <v>19.36644914064987</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5410312747723081</v>
+        <v>53.14301668009413</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9247086227794468</v>
+        <v>90.82988000144029</v>
       </c>
       <c r="L15" t="n">
-        <v>1.243384859458851</v>
+        <v>122.131982765334</v>
       </c>
       <c r="M15" t="n">
-        <v>1.450971484313459</v>
+        <v>142.5222632936742</v>
       </c>
       <c r="N15" t="n">
-        <v>1.489374382002836</v>
+        <v>146.2944035148276</v>
       </c>
       <c r="O15" t="n">
-        <v>1.362486586628912</v>
+        <v>133.8307982844374</v>
       </c>
       <c r="P15" t="n">
-        <v>1.093515604709008</v>
+        <v>107.4110143548553</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7309862225975234</v>
+        <v>71.80141857190749</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3555470370770528</v>
+        <v>34.92375210637448</v>
       </c>
       <c r="S15" t="n">
-        <v>0.106367738204388</v>
+        <v>10.44801428161174</v>
       </c>
       <c r="T15" t="n">
-        <v>0.02308192477209743</v>
+        <v>2.267231434427672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.03700595377194244</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.4715731376839876</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04268461758636078</v>
+        <v>4.192713896863093</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1443770091775883</v>
+        <v>14.18149035871483</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3394256349377582</v>
+        <v>33.34022083425792</v>
       </c>
       <c r="K16" t="n">
-        <v>0.55778058563772</v>
+        <v>54.78822454183054</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7137671124819467</v>
+        <v>70.11006448803576</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7525673425783418</v>
+        <v>73.92123284622724</v>
       </c>
       <c r="N16" t="n">
-        <v>0.734672973242547</v>
+        <v>72.16355115122334</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6785894010559684</v>
+        <v>66.65471949736947</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5806504625449317</v>
+        <v>57.03462748861607</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4020122828097841</v>
+        <v>39.48781973824736</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2158671969142538</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0.083667087845658</v>
+        <v>8.21823368127458</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02051305753127766</v>
+        <v>2.014903406467946</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.02572217114639935</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I17" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J17" t="n">
         <v>112.8595291536268</v>
@@ -32241,13 +32241,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O17" t="n">
         <v>224.0452553667434</v>
@@ -32259,13 +32259,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S17" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T17" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U17" t="n">
         <v>0.1063787370334189</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H18" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I18" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J18" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K18" t="n">
         <v>114.8868877226589</v>
@@ -32335,10 +32335,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R18" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S18" t="n">
         <v>13.21525299468887</v>
@@ -32347,7 +32347,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H19" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I19" t="n">
         <v>17.9375695592222</v>
@@ -32396,25 +32396,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K19" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M19" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P19" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R19" t="n">
         <v>26.81959463117078</v>
@@ -32426,7 +32426,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I20" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J20" t="n">
         <v>112.8595291536268</v>
@@ -32478,13 +32478,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O20" t="n">
         <v>224.0452553667434</v>
@@ -32496,13 +32496,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S20" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T20" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U20" t="n">
         <v>0.1063787370334189</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H21" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I21" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J21" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K21" t="n">
         <v>114.8868877226589</v>
@@ -32572,10 +32572,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R21" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S21" t="n">
         <v>13.21525299468887</v>
@@ -32584,7 +32584,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H22" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I22" t="n">
         <v>17.9375695592222</v>
@@ -32633,25 +32633,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K22" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L22" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P22" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R22" t="n">
         <v>26.81959463117078</v>
@@ -32663,7 +32663,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I23" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J23" t="n">
         <v>112.8595291536268</v>
@@ -32715,13 +32715,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L23" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M23" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N23" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O23" t="n">
         <v>224.0452553667434</v>
@@ -32733,13 +32733,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S23" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T23" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U23" t="n">
         <v>0.1063787370334189</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H24" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I24" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J24" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K24" t="n">
         <v>114.8868877226589</v>
@@ -32809,10 +32809,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R24" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S24" t="n">
         <v>13.21525299468887</v>
@@ -32821,7 +32821,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H25" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I25" t="n">
         <v>17.9375695592222</v>
@@ -32870,25 +32870,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K25" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L25" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M25" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N25" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O25" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P25" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R25" t="n">
         <v>26.81959463117078</v>
@@ -32900,7 +32900,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I26" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J26" t="n">
         <v>112.8595291536268</v>
@@ -32952,13 +32952,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L26" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N26" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O26" t="n">
         <v>224.0452553667434</v>
@@ -32970,13 +32970,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T26" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U26" t="n">
         <v>0.1063787370334189</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H27" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I27" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J27" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K27" t="n">
         <v>114.8868877226589</v>
@@ -33046,10 +33046,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R27" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S27" t="n">
         <v>13.21525299468887</v>
@@ -33058,7 +33058,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H28" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I28" t="n">
         <v>17.9375695592222</v>
@@ -33107,25 +33107,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K28" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L28" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M28" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N28" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O28" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P28" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R28" t="n">
         <v>26.81959463117078</v>
@@ -33137,7 +33137,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I29" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J29" t="n">
         <v>112.8595291536268</v>
@@ -33189,13 +33189,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L29" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M29" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N29" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O29" t="n">
         <v>224.0452553667434</v>
@@ -33207,13 +33207,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R29" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T29" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U29" t="n">
         <v>0.1063787370334189</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H30" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I30" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J30" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K30" t="n">
         <v>114.8868877226589</v>
@@ -33283,10 +33283,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R30" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S30" t="n">
         <v>13.21525299468887</v>
@@ -33295,7 +33295,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H31" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I31" t="n">
         <v>17.9375695592222</v>
@@ -33344,25 +33344,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K31" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L31" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M31" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N31" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O31" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P31" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R31" t="n">
         <v>26.81959463117078</v>
@@ -33374,7 +33374,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,46 +33414,46 @@
         <v>1.329734212917736</v>
       </c>
       <c r="H32" t="n">
-        <v>13.61814050804376</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I32" t="n">
-        <v>51.26457824351105</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J32" t="n">
         <v>112.8595291536268</v>
       </c>
       <c r="K32" t="n">
-        <v>169.1471783864345</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L32" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4896926139915</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N32" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O32" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P32" t="n">
-        <v>191.2174419853367</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q32" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R32" t="n">
-        <v>83.52891675219379</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30131837686293</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T32" t="n">
-        <v>5.820911517047391</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1063787370334188</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7114705272229193</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H33" t="n">
-        <v>6.871307460284511</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I33" t="n">
-        <v>24.49580543289437</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J33" t="n">
-        <v>67.21836239872327</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K33" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L33" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M33" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N33" t="n">
-        <v>185.0416262885609</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O33" t="n">
-        <v>169.2769372379899</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P33" t="n">
         <v>135.8596658518924</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.81858870305194</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R33" t="n">
-        <v>44.17358238319144</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S33" t="n">
-        <v>13.21525299468886</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T33" t="n">
-        <v>2.867725502271327</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04680727152782365</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5964729901796978</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H34" t="n">
-        <v>5.303187130870408</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I34" t="n">
-        <v>17.93756955922219</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J34" t="n">
-        <v>42.17064040570463</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K34" t="n">
-        <v>69.29931649542306</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L34" t="n">
-        <v>88.67926619453436</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M34" t="n">
-        <v>93.49985245153208</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N34" t="n">
-        <v>91.27663494268054</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O34" t="n">
-        <v>84.30874592103586</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P34" t="n">
-        <v>72.14069692136997</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.94647920495633</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R34" t="n">
-        <v>26.81959463117077</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S34" t="n">
         <v>10.39489747431346</v>
       </c>
       <c r="T34" t="n">
-        <v>2.548566412585981</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0325348903734381</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I38" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J38" t="n">
         <v>112.8595291536268</v>
@@ -33900,13 +33900,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L38" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M38" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N38" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O38" t="n">
         <v>224.0452553667434</v>
@@ -33918,13 +33918,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R38" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S38" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T38" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U38" t="n">
         <v>0.1063787370334189</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H39" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I39" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J39" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K39" t="n">
         <v>114.8868877226589</v>
@@ -33994,10 +33994,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R39" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S39" t="n">
         <v>13.21525299468887</v>
@@ -34006,7 +34006,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H40" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I40" t="n">
         <v>17.9375695592222</v>
@@ -34055,25 +34055,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K40" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L40" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M40" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N40" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O40" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P40" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R40" t="n">
         <v>26.81959463117078</v>
@@ -34085,7 +34085,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I41" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J41" t="n">
         <v>112.8595291536268</v>
@@ -34137,13 +34137,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L41" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M41" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N41" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O41" t="n">
         <v>224.0452553667434</v>
@@ -34155,13 +34155,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R41" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S41" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T41" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U41" t="n">
         <v>0.1063787370334189</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H42" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I42" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J42" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K42" t="n">
         <v>114.8868877226589</v>
@@ -34231,10 +34231,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R42" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S42" t="n">
         <v>13.21525299468887</v>
@@ -34243,7 +34243,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H43" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I43" t="n">
         <v>17.9375695592222</v>
@@ -34292,25 +34292,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K43" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L43" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M43" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N43" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O43" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P43" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R43" t="n">
         <v>26.81959463117078</v>
@@ -34322,7 +34322,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I44" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J44" t="n">
         <v>112.8595291536268</v>
@@ -34374,13 +34374,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M44" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N44" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O44" t="n">
         <v>224.0452553667434</v>
@@ -34392,13 +34392,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S44" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T44" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U44" t="n">
         <v>0.1063787370334189</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H45" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I45" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J45" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K45" t="n">
         <v>114.8868877226589</v>
@@ -34468,10 +34468,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R45" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S45" t="n">
         <v>13.21525299468887</v>
@@ -34480,7 +34480,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H46" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I46" t="n">
         <v>17.9375695592222</v>
@@ -34529,25 +34529,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K46" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L46" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M46" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N46" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O46" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P46" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R46" t="n">
         <v>26.81959463117078</v>
@@ -34559,7 +34559,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9083906948817464</v>
+        <v>0.9083906948817447</v>
       </c>
       <c r="K11" t="n">
-        <v>1.361442175632202</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L11" t="n">
         <v>1.688989405823955</v>
@@ -35433,7 +35433,7 @@
         <v>1.155786985397851</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6723126642497288</v>
+        <v>0.672312664249727</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0.19716334000105</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5410312747723078</v>
+        <v>0.5410312747723079</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9247086227794465</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="L12" t="n">
-        <v>1.243384859458851</v>
+        <v>2.434750676203517</v>
       </c>
       <c r="M12" t="n">
-        <v>2.073175715355734</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N12" t="n">
         <v>1.489374382002836</v>
@@ -35512,7 +35512,7 @@
         <v>0.7309862225975223</v>
       </c>
       <c r="R12" t="n">
-        <v>3.262548922260276</v>
+        <v>0.3555470370770522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.262548922260276</v>
+        <v>0.3394256349377581</v>
       </c>
       <c r="K13" t="n">
-        <v>2.933030394141658</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7137671124819462</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7525673425783417</v>
+        <v>0.9181991074221569</v>
       </c>
       <c r="N13" t="n">
         <v>0.7346729732425468</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6785894010559677</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="P13" t="n">
         <v>0.5806504625449307</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>40.11729087625565</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9083906948817437</v>
+        <v>89.22704490689402</v>
       </c>
       <c r="K14" t="n">
-        <v>1.361442175632203</v>
+        <v>133.728210590145</v>
       </c>
       <c r="L14" t="n">
-        <v>1.688989405823955</v>
+        <v>165.9016702943451</v>
       </c>
       <c r="M14" t="n">
-        <v>1.879326147397212</v>
+        <v>184.5975740321083</v>
       </c>
       <c r="N14" t="n">
-        <v>1.909735609237095</v>
+        <v>187.5845557707697</v>
       </c>
       <c r="O14" t="n">
-        <v>1.803309182076397</v>
+        <v>177.1307767425905</v>
       </c>
       <c r="P14" t="n">
-        <v>1.539082665869758</v>
+        <v>151.1770198844459</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.155786985397853</v>
+        <v>113.527646011745</v>
       </c>
       <c r="R14" t="n">
-        <v>0.672312664249727</v>
+        <v>66.03818447556137</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8193675710433224</v>
+        <v>19.36644914064987</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5410312747723081</v>
+        <v>321.561670041926</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9247086227794468</v>
+        <v>90.8298800014403</v>
       </c>
       <c r="L15" t="n">
-        <v>1.243384859458851</v>
+        <v>122.131982765334</v>
       </c>
       <c r="M15" t="n">
-        <v>1.450971484313459</v>
+        <v>142.5222632936742</v>
       </c>
       <c r="N15" t="n">
-        <v>1.489374382002836</v>
+        <v>146.2944035148275</v>
       </c>
       <c r="O15" t="n">
-        <v>1.362486586628911</v>
+        <v>133.8307982844374</v>
       </c>
       <c r="P15" t="n">
-        <v>1.093515604709008</v>
+        <v>107.4110143548553</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7309862225975241</v>
+        <v>71.80141857190756</v>
       </c>
       <c r="R15" t="n">
-        <v>3.262548922260276</v>
+        <v>153.2800936158085</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.262548922260276</v>
+        <v>120.7944482733386</v>
       </c>
       <c r="K16" t="n">
-        <v>2.933030394141655</v>
+        <v>116.5963778207869</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7137671124819471</v>
+        <v>70.11006448803573</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7525673425783417</v>
+        <v>73.92123284622727</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7346729732425468</v>
+        <v>330.5968555737275</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6785894010559677</v>
+        <v>330.5968555737275</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5806504625449325</v>
+        <v>57.03462748861602</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.262548922260276</v>
+        <v>209.3795115204011</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J17" t="n">
         <v>112.8595291536268</v>
       </c>
       <c r="K17" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864345</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050161</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N17" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O17" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P17" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219416</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J18" t="n">
         <v>67.21836239872329</v>
@@ -35968,10 +35968,10 @@
         <v>114.8868877226589</v>
       </c>
       <c r="L18" t="n">
-        <v>418.1856318563247</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M18" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N18" t="n">
         <v>185.041626288561</v>
@@ -35980,13 +35980,13 @@
         <v>169.27693723799</v>
       </c>
       <c r="P18" t="n">
-        <v>135.8596658518925</v>
+        <v>153.1340173001366</v>
       </c>
       <c r="Q18" t="n">
-        <v>316.4372340096593</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R18" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.17064040570464</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K19" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L19" t="n">
-        <v>162.1161581134699</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M19" t="n">
-        <v>418.1856318563247</v>
+        <v>288.0223292450721</v>
       </c>
       <c r="N19" t="n">
-        <v>418.1856318563247</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O19" t="n">
-        <v>418.1856318563246</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P19" t="n">
         <v>72.14069692136991</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R19" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J20" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K20" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
         <v>233.4896926139917</v>
@@ -36135,7 +36135,7 @@
         <v>237.2677999464441</v>
       </c>
       <c r="O20" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P20" t="n">
         <v>191.2174419853368</v>
@@ -36144,7 +36144,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>50.82274801921519</v>
       </c>
       <c r="J21" t="n">
-        <v>395.0550542837863</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K21" t="n">
         <v>114.8868877226589</v>
@@ -36208,19 +36208,19 @@
         <v>154.4795984656607</v>
       </c>
       <c r="M21" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N21" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O21" t="n">
-        <v>169.2769372379898</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P21" t="n">
-        <v>135.8596658518925</v>
+        <v>153.1340173001366</v>
       </c>
       <c r="Q21" t="n">
-        <v>107.6232914195061</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R21" t="n">
         <v>162.5299238926254</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K22" t="n">
         <v>346.8331089915197</v>
       </c>
       <c r="L22" t="n">
-        <v>354.1174011539908</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153209</v>
+        <v>288.0223292450721</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P22" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q22" t="n">
         <v>219.8381709871101</v>
       </c>
       <c r="R22" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J23" t="n">
         <v>112.8595291536268</v>
@@ -36366,10 +36366,10 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M23" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N23" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O23" t="n">
         <v>224.0452553667435</v>
@@ -36378,10 +36378,10 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q23" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219439</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J24" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K24" t="n">
-        <v>158.488181757224</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L24" t="n">
         <v>154.4795984656607</v>
@@ -36451,16 +36451,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O24" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P24" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q24" t="n">
-        <v>418.1856318563248</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R24" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,28 +36518,28 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K25" t="n">
-        <v>142.7362084143587</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L25" t="n">
-        <v>88.67926619453439</v>
+        <v>354.1174011539907</v>
       </c>
       <c r="M25" t="n">
+        <v>93.49985245153209</v>
+      </c>
+      <c r="N25" t="n">
+        <v>91.27663494268063</v>
+      </c>
+      <c r="O25" t="n">
+        <v>84.30874592103589</v>
+      </c>
+      <c r="P25" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="N25" t="n">
-        <v>418.1856318563248</v>
-      </c>
-      <c r="O25" t="n">
-        <v>418.1856318563248</v>
-      </c>
-      <c r="P25" t="n">
-        <v>72.14069692136991</v>
-      </c>
       <c r="Q25" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R25" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J26" t="n">
-        <v>112.859529153627</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K26" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L26" t="n">
         <v>209.8420318050158</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N26" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O26" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P26" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219348</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K27" t="n">
-        <v>131.6915904391124</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L27" t="n">
         <v>154.4795984656607</v>
@@ -36694,7 +36694,7 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R27" t="n">
         <v>162.5299238926254</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570466</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L28" t="n">
-        <v>266.6631737149095</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M28" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N28" t="n">
-        <v>91.27663494268052</v>
+        <v>300.3716764629442</v>
       </c>
       <c r="O28" t="n">
-        <v>84.30874592103589</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P28" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="Q28" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R28" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,10 +36828,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J29" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K29" t="n">
         <v>169.1471783864346</v>
@@ -36840,10 +36840,10 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M29" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N29" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O29" t="n">
         <v>224.0452553667435</v>
@@ -36852,7 +36852,7 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q29" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R29" t="n">
         <v>83.52891675219371</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>24.49580543289438</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J30" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K30" t="n">
         <v>114.8868877226589</v>
@@ -36919,19 +36919,19 @@
         <v>154.4795984656607</v>
       </c>
       <c r="M30" t="n">
-        <v>180.2704050774915</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N30" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O30" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P30" t="n">
-        <v>179.4609598864575</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q30" t="n">
-        <v>418.1856318563246</v>
+        <v>107.6232914195061</v>
       </c>
       <c r="R30" t="n">
         <v>162.5299238926254</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.17064040570464</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K31" t="n">
         <v>69.29931649542308</v>
       </c>
       <c r="L31" t="n">
-        <v>162.1161581134699</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="M31" t="n">
-        <v>418.1856318563247</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N31" t="n">
-        <v>418.1856318563247</v>
+        <v>140.7570025833077</v>
       </c>
       <c r="O31" t="n">
-        <v>418.1856318563246</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="P31" t="n">
-        <v>72.14069692136991</v>
+        <v>418.185631856325</v>
       </c>
       <c r="Q31" t="n">
         <v>49.9464792049564</v>
       </c>
       <c r="R31" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>50.85195676437966</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J32" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K32" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L32" t="n">
         <v>209.8420318050158</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N32" t="n">
-        <v>237.267799946444</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O32" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P32" t="n">
-        <v>191.2174419853366</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q32" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R32" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J33" t="n">
         <v>395.0550542837863</v>
@@ -37153,22 +37153,22 @@
         <v>114.8868877226589</v>
       </c>
       <c r="L33" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M33" t="n">
         <v>180.2704050774914</v>
       </c>
       <c r="N33" t="n">
-        <v>185.0416262885608</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O33" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P33" t="n">
-        <v>135.8596658518923</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q33" t="n">
-        <v>107.6232914195066</v>
+        <v>107.6232914195059</v>
       </c>
       <c r="R33" t="n">
         <v>162.5299238926254</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K34" t="n">
-        <v>69.29931649542306</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L34" t="n">
-        <v>88.67926619453439</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="M34" t="n">
-        <v>418.1856318563247</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N34" t="n">
-        <v>418.1856318563246</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O34" t="n">
-        <v>84.30874592103578</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="P34" t="n">
-        <v>222.1085555543598</v>
+        <v>297.7743077147982</v>
       </c>
       <c r="Q34" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R34" t="n">
-        <v>5.615951549488933</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>50.85195676437969</v>
       </c>
       <c r="J35" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K35" t="n">
         <v>169.1471783864346</v>
@@ -37320,7 +37320,7 @@
         <v>237.2677999464443</v>
       </c>
       <c r="O35" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P35" t="n">
         <v>191.2174419853368</v>
@@ -37329,7 +37329,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R35" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219416</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>50.82274801921519</v>
       </c>
       <c r="J36" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K36" t="n">
         <v>114.8868877226589</v>
@@ -37393,10 +37393,10 @@
         <v>154.4795984656607</v>
       </c>
       <c r="M36" t="n">
-        <v>291.7677941112446</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N36" t="n">
-        <v>418.1856318563248</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O36" t="n">
         <v>169.2769372379901</v>
@@ -37405,10 +37405,10 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R36" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K37" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L37" t="n">
-        <v>288.0223292450721</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="M37" t="n">
+        <v>93.49985245153209</v>
+      </c>
+      <c r="N37" t="n">
+        <v>418.1856318563249</v>
+      </c>
+      <c r="O37" t="n">
         <v>418.1856318563248</v>
-      </c>
-      <c r="N37" t="n">
-        <v>91.27663494268063</v>
-      </c>
-      <c r="O37" t="n">
-        <v>84.30874592103601</v>
       </c>
       <c r="P37" t="n">
         <v>72.14069692136991</v>
       </c>
       <c r="Q37" t="n">
-        <v>219.8381709871101</v>
+        <v>118.5627848668942</v>
       </c>
       <c r="R37" t="n">
         <v>5.615951549488948</v>
@@ -37539,22 +37539,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J38" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K38" t="n">
         <v>169.1471783864347</v>
       </c>
       <c r="L38" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M38" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N38" t="n">
-        <v>237.267799946444</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O38" t="n">
         <v>224.0452553667435</v>
@@ -37563,10 +37563,10 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q38" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R38" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>50.82274801921519</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J39" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K39" t="n">
-        <v>131.6915904391128</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L39" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656608</v>
       </c>
       <c r="M39" t="n">
         <v>180.2704050774914</v>
@@ -37642,7 +37642,7 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.818588703052</v>
+        <v>133.9502340058266</v>
       </c>
       <c r="R39" t="n">
         <v>162.5299238926254</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K40" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L40" t="n">
-        <v>266.6631737149102</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M40" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="N40" t="n">
-        <v>91.27663494268052</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="O40" t="n">
-        <v>84.30874592103589</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P40" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q40" t="n">
-        <v>219.8381709871101</v>
+        <v>123.3833711238919</v>
       </c>
       <c r="R40" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J41" t="n">
         <v>112.8595291536268</v>
@@ -37785,25 +37785,25 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L41" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M41" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N41" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O41" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P41" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q41" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R41" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J42" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K42" t="n">
-        <v>132.1612391709027</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L42" t="n">
         <v>154.4795984656607</v>
@@ -37873,16 +37873,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O42" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P42" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q42" t="n">
-        <v>418.1856318563246</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R42" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K43" t="n">
-        <v>190.940130576606</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L43" t="n">
         <v>88.67926619453442</v>
@@ -37949,10 +37949,10 @@
         <v>93.49985245153209</v>
       </c>
       <c r="N43" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O43" t="n">
-        <v>418.1856318563247</v>
+        <v>262.2926534414115</v>
       </c>
       <c r="P43" t="n">
         <v>418.1856318563248</v>
@@ -37961,7 +37961,7 @@
         <v>219.8381709871101</v>
       </c>
       <c r="R43" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J44" t="n">
         <v>112.8595291536268</v>
@@ -38022,13 +38022,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M44" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N44" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O44" t="n">
         <v>224.0452553667433</v>
@@ -38037,10 +38037,10 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q44" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>50.82274801921519</v>
       </c>
       <c r="J45" t="n">
-        <v>395.0550542837863</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K45" t="n">
-        <v>131.6915904391128</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L45" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M45" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N45" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>169.2769372379898</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P45" t="n">
-        <v>135.8596658518925</v>
+        <v>153.1340173001366</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.818588703052</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R45" t="n">
         <v>162.5299238926254</v>
@@ -38180,25 +38180,25 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L46" t="n">
-        <v>88.67926619453442</v>
+        <v>288.0223292450721</v>
       </c>
       <c r="M46" t="n">
-        <v>271.4837599719076</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N46" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O46" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P46" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q46" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R46" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
